--- a/ww2-losses/model-weights.xlsx
+++ b/ww2-losses/model-weights.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\ww2-losses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\ww2-losses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD114B0-9A35-479C-91DD-517BE01DB923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AFF7EB-ACBC-4BFD-BE0B-5FAA9FCF3DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1515" windowWidth="26340" windowHeight="19065" xr2:uid="{D87ABDF8-9C99-40A4-BC85-F05BC0C9C90B}"/>
+    <workbookView xWindow="81465" yWindow="2370" windowWidth="25845" windowHeight="19695" xr2:uid="{D87ABDF8-9C99-40A4-BC85-F05BC0C9C90B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Распределение сверхсмертности" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>полугодие</t>
   </si>
@@ -53,9 +58,6 @@
   </si>
   <si>
     <t>оккуп</t>
-  </si>
-  <si>
-    <t>неоккуп</t>
   </si>
   <si>
     <t>всего</t>
@@ -82,21 +84,62 @@
 потерь</t>
   </si>
   <si>
-    <t>веса потерь
-в тылу и в оккупации</t>
-  </si>
-  <si>
     <t>распределение
 потерь РККА</t>
   </si>
   <si>
-    <t>коэфф. прилагаемые к начальному населению, а не текущему!!!!</t>
+    <t>Удельное распределение сверхсмертности по полугодиям</t>
+  </si>
+  <si>
+    <t>остаток 
+исходного
+населения, интерп.</t>
+  </si>
+  <si>
+    <t>Распределение потерь РККА = по Кривошееву, тж. Кавалерчику и Лопуховскому</t>
+  </si>
+  <si>
+    <t>Доля населения в оккупации = Госкомстат</t>
+  </si>
+  <si>
+    <t>Интенсивность потерь (в оккупации и в тылу), относительно наличного населения = произвольно назначена</t>
+  </si>
+  <si>
+    <t>Остаток исходного населения (от имевшегося в начале войны) = линейно инптрполирован</t>
+  </si>
+  <si>
+    <t>удельные веса потерь
+в тылу и в оккупации</t>
+  </si>
+  <si>
+    <t>Удельный вес потерь в оккупации = доля населения в оккупации × интенсивность потерь в оккупации × остаток исходного населения</t>
+  </si>
+  <si>
+    <t>Удельный вес потерь в тылу = доля населения в тылу × интенсивность потерь в тылу × остаток исходного населения</t>
+  </si>
+  <si>
+    <t>Удельный вес потерь всего = удельный вес потерь в оккупации + удельный вес потерь в тылу</t>
+  </si>
+  <si>
+    <t>Потери мужчин призывного возраста = 0.8 × нормализованые боевые потери + 0.2 × нормализованные потери в тылу и оккупации</t>
+  </si>
+  <si>
+    <t>Потери остальных групп = 0.2 × нормализованые боевые потери + 0.8 × нормализованные потери в тылу и оккупации</t>
+  </si>
+  <si>
+    <t>Нормализованные боевые потери = распределение потерь РККА по полугодиям нормализованное на сумму 1.0</t>
+  </si>
+  <si>
+    <t>Удельный вес потерь всего, нормализованный = нормализованные на общую сумму по полугодиям в 1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -166,7 +209,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -174,26 +216,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -214,9 +291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,7 +331,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -360,7 +437,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,108 +587,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6F7AD4-3EAD-45B6-8C2F-0B488C48472E}">
-  <dimension ref="A5:T23"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="1.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="1.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="1.7109375" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="1.140625" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.15625" customWidth="1"/>
+    <col min="2" max="2" width="2.41796875" customWidth="1"/>
+    <col min="3" max="3" width="11.578125" customWidth="1"/>
+    <col min="4" max="4" width="14.83984375" customWidth="1"/>
+    <col min="5" max="5" width="2.578125" customWidth="1"/>
+    <col min="6" max="6" width="12.578125" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="8" width="1.83984375" customWidth="1"/>
+    <col min="10" max="10" width="11.83984375" customWidth="1"/>
+    <col min="11" max="11" width="1.26171875" customWidth="1"/>
+    <col min="12" max="12" width="14.83984375" customWidth="1"/>
+    <col min="13" max="13" width="1.26171875" customWidth="1"/>
+    <col min="17" max="17" width="13.68359375" customWidth="1"/>
+    <col min="18" max="18" width="1.68359375" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="1.15625" customWidth="1"/>
+    <col min="21" max="21" width="11.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9"/>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12"/>
       <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="13" t="s">
+      <c r="M5" s="10"/>
+      <c r="N5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="12"/>
+      <c r="U5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="13" t="s">
+    </row>
+    <row r="6" spans="1:22" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="9"/>
+      <c r="R6" s="12"/>
       <c r="S6" s="13"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T6" s="12"/>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>1941.1</v>
       </c>
@@ -619,503 +709,539 @@
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="20">
         <f>C7/C$18</f>
         <v>0</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="23">
+        <v>0</v>
+      </c>
+      <c r="G7" s="24">
         <f>1-F7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6">
-        <f>I7*F7</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <f>G7*J7</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <f>L7+M7</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
-        <f>N7/N$18</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="6">
-        <f>0.8 *D7 + 0.2 *O7</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="6">
-        <f>0.2*D7 + 0.8 *O7</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25">
+        <v>1</v>
+      </c>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25">
+        <f>I7*F7*L7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="25">
+        <f>G7*J7*L7</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="25">
+        <f>N7+O7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="25">
+        <f>P7/P$18</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="26"/>
+      <c r="S7" s="25">
+        <f>0.8 *D7 + 0.2 *Q7</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="26"/>
+      <c r="U7" s="25">
+        <f>0.2*D7 + 0.8 *Q7</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>1941.2</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>3137673</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="20">
         <f t="shared" ref="D8:D16" si="0">C8/C$18</f>
         <v>0.27833458381094839</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5">
+      <c r="F8" s="23">
         <v>0.19600000000000001</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="24">
         <f t="shared" ref="G8:G16" si="1">1-F8</f>
         <v>0.80400000000000005</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6">
+      <c r="H8" s="25"/>
+      <c r="I8" s="25">
         <v>1.6</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="25">
         <v>1</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6">
-        <f>I8*F8</f>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25">
+        <v>1</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25">
+        <f t="shared" ref="N8:N16" si="2">I8*F8*L8</f>
         <v>0.31360000000000005</v>
       </c>
-      <c r="M8" s="6">
-        <f>G8*J8</f>
+      <c r="O8" s="25">
+        <f t="shared" ref="O8:O16" si="3">G8*J8*L8</f>
         <v>0.80400000000000005</v>
       </c>
-      <c r="N8" s="6">
-        <f>L8+M8</f>
+      <c r="P8" s="25">
+        <f>N8+O8</f>
         <v>1.1176000000000001</v>
       </c>
-      <c r="O8" s="6">
-        <f t="shared" ref="O8:O16" si="2">N8/N$18</f>
-        <v>0.13405221271312995</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="6">
-        <f>0.8 *D8 + 0.2 *O8</f>
-        <v>0.24947810959138472</v>
-      </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="6">
-        <f>0.2*D8 + 0.8 *O8</f>
-        <v>0.16290868693269364</v>
-      </c>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q8" s="25">
+        <f t="shared" ref="Q8:Q16" si="4">P8/P$18</f>
+        <v>0.14584924840779537</v>
+      </c>
+      <c r="R8" s="26"/>
+      <c r="S8" s="25">
+        <f>0.8 *D8 + 0.2 *Q8</f>
+        <v>0.25183751673031779</v>
+      </c>
+      <c r="T8" s="26"/>
+      <c r="U8" s="25">
+        <f>0.2*D8 + 0.8 *Q8</f>
+        <v>0.17234631548842599</v>
+      </c>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>1942.1</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>1518213</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="20">
         <f t="shared" si="0"/>
         <v>0.1346766165535323</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="F9" s="23">
         <v>0.37799999999999995</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="24">
         <f t="shared" si="1"/>
         <v>0.62200000000000011</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6">
+      <c r="H9" s="25"/>
+      <c r="I9" s="25">
         <v>1.6</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="25">
         <v>1</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6">
-        <f t="shared" ref="L9:L16" si="3">I9*F9</f>
-        <v>0.6048</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" ref="M9:M16" si="4">G9*J9</f>
-        <v>0.62200000000000011</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" ref="N9:N16" si="5">L9+M9</f>
-        <v>1.2268000000000001</v>
-      </c>
-      <c r="O9" s="6">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25">
+        <v>0.97444444444444445</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25">
         <f t="shared" si="2"/>
-        <v>0.14715037093456318</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="6">
-        <f t="shared" ref="Q9:Q16" si="6">0.8 *D9 + 0.2 *O9</f>
-        <v>0.13717136742973848</v>
-      </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="6">
-        <f t="shared" ref="S9:S16" si="7">0.2*D9 + 0.8 *O9</f>
-        <v>0.14465562005835703</v>
-      </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.58934399999999998</v>
+      </c>
+      <c r="O9" s="25">
+        <f t="shared" si="3"/>
+        <v>0.60610444444444456</v>
+      </c>
+      <c r="P9" s="25">
+        <f t="shared" ref="P9:P16" si="5">N9+O9</f>
+        <v>1.1954484444444446</v>
+      </c>
+      <c r="Q9" s="25">
+        <f t="shared" si="4"/>
+        <v>0.15600864095605793</v>
+      </c>
+      <c r="R9" s="26"/>
+      <c r="S9" s="25">
+        <f t="shared" ref="S9:S16" si="6">0.8 *D9 + 0.2 *Q9</f>
+        <v>0.13894302143403742</v>
+      </c>
+      <c r="T9" s="26"/>
+      <c r="U9" s="25">
+        <f t="shared" ref="U9:U16" si="7">0.2*D9 + 0.8 *Q9</f>
+        <v>0.15174223607555282</v>
+      </c>
+      <c r="V9" s="6"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>1942.2</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>1740003</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="20">
         <f t="shared" si="0"/>
         <v>0.15435101453682445</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="F10" s="23">
         <v>0.40100000000000002</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="24">
         <f t="shared" si="1"/>
         <v>0.59899999999999998</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6">
+      <c r="H10" s="25"/>
+      <c r="I10" s="25">
         <v>1.6</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="25">
         <v>1</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6">
+      <c r="K10" s="25"/>
+      <c r="L10" s="25">
+        <v>0.94888888888888878</v>
+      </c>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25">
+        <f t="shared" si="2"/>
+        <v>0.60880711111111108</v>
+      </c>
+      <c r="O10" s="25">
         <f t="shared" si="3"/>
-        <v>0.64160000000000006</v>
-      </c>
-      <c r="M10" s="6">
+        <v>0.56838444444444436</v>
+      </c>
+      <c r="P10" s="25">
+        <f t="shared" si="5"/>
+        <v>1.1771915555555554</v>
+      </c>
+      <c r="Q10" s="25">
         <f t="shared" si="4"/>
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" si="5"/>
-        <v>1.2406000000000001</v>
-      </c>
-      <c r="O10" s="6">
-        <f t="shared" si="2"/>
-        <v>0.14880563268782124</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="6">
+        <v>0.15362607695936045</v>
+      </c>
+      <c r="R10" s="26"/>
+      <c r="S10" s="25">
         <f t="shared" si="6"/>
-        <v>0.15324193816702381</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="6">
+        <v>0.15420602702133165</v>
+      </c>
+      <c r="T10" s="26"/>
+      <c r="U10" s="25">
         <f t="shared" si="7"/>
-        <v>0.14991470905762189</v>
-      </c>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.15377106447485325</v>
+      </c>
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>1943.1</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>918618</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="20">
         <f t="shared" si="0"/>
         <v>8.148814701571698E-2</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5">
+      <c r="F11" s="23">
         <v>0.32700000000000001</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="24">
         <f t="shared" si="1"/>
         <v>0.67300000000000004</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6">
+      <c r="H11" s="25"/>
+      <c r="I11" s="25">
         <v>1.6</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="25">
         <v>0.95</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25">
+        <v>0.92333333333333323</v>
+      </c>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25">
+        <f t="shared" si="2"/>
+        <v>0.48308799999999996</v>
+      </c>
+      <c r="O11" s="25">
         <f t="shared" si="3"/>
-        <v>0.5232</v>
-      </c>
-      <c r="M11" s="6">
+        <v>0.59033316666666658</v>
+      </c>
+      <c r="P11" s="25">
+        <f t="shared" si="5"/>
+        <v>1.0734211666666664</v>
+      </c>
+      <c r="Q11" s="25">
         <f t="shared" si="4"/>
-        <v>0.63934999999999997</v>
-      </c>
-      <c r="N11" s="6">
-        <f t="shared" si="5"/>
-        <v>1.16255</v>
-      </c>
-      <c r="O11" s="6">
-        <f t="shared" si="2"/>
-        <v>0.1394438080616045</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="6">
+        <v>0.14008381387200441</v>
+      </c>
+      <c r="R11" s="26"/>
+      <c r="S11" s="25">
         <f t="shared" si="6"/>
-        <v>9.3079279224894493E-2</v>
-      </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="6">
+        <v>9.3207280386974484E-2</v>
+      </c>
+      <c r="T11" s="26"/>
+      <c r="U11" s="25">
         <f t="shared" si="7"/>
-        <v>0.12785267585242699</v>
-      </c>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.12836468050074692</v>
+      </c>
+      <c r="V11" s="6"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>1943.2</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>1393811</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="20">
         <f t="shared" si="0"/>
         <v>0.12364124770048432</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5">
+      <c r="F12" s="23">
         <v>0.24199999999999999</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="24">
         <f t="shared" si="1"/>
         <v>0.75800000000000001</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6">
+      <c r="H12" s="25"/>
+      <c r="I12" s="25">
         <v>1.6</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="25">
         <v>0.9</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6">
+      <c r="K12" s="25"/>
+      <c r="L12" s="25">
+        <v>0.89777777777777756</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25">
+        <f t="shared" si="2"/>
+        <v>0.34761955555555546</v>
+      </c>
+      <c r="O12" s="25">
         <f t="shared" si="3"/>
-        <v>0.38719999999999999</v>
-      </c>
-      <c r="M12" s="6">
+        <v>0.6124639999999999</v>
+      </c>
+      <c r="P12" s="25">
+        <f t="shared" si="5"/>
+        <v>0.96008355555555536</v>
+      </c>
+      <c r="Q12" s="25">
         <f t="shared" si="4"/>
-        <v>0.68220000000000003</v>
-      </c>
-      <c r="N12" s="6">
-        <f t="shared" si="5"/>
-        <v>1.0693999999999999</v>
-      </c>
-      <c r="O12" s="6">
-        <f t="shared" si="2"/>
-        <v>0.12827079122711268</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="6">
+        <v>0.1252930073250372</v>
+      </c>
+      <c r="R12" s="26"/>
+      <c r="S12" s="25">
         <f t="shared" si="6"/>
-        <v>0.12456715640581</v>
-      </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="6">
+        <v>0.12397159962539489</v>
+      </c>
+      <c r="T12" s="26"/>
+      <c r="U12" s="25">
         <f t="shared" si="7"/>
-        <v>0.12734488252178702</v>
-      </c>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.12496265540012663</v>
+      </c>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>1944.1</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>915019</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="20">
         <f t="shared" si="0"/>
         <v>8.1168889347012954E-2</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="5">
+      <c r="F13" s="23">
         <v>0.14199999999999999</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="24">
         <f t="shared" si="1"/>
         <v>0.85799999999999998</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6">
+      <c r="H13" s="25"/>
+      <c r="I13" s="25">
         <v>1.6</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="25">
         <v>0.85</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6">
+      <c r="K13" s="25"/>
+      <c r="L13" s="25">
+        <v>0.87222222222222201</v>
+      </c>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25">
+        <f t="shared" si="2"/>
+        <v>0.19816888888888884</v>
+      </c>
+      <c r="O13" s="25">
         <f t="shared" si="3"/>
-        <v>0.22719999999999999</v>
-      </c>
-      <c r="M13" s="6">
+        <v>0.63611166666666652</v>
+      </c>
+      <c r="P13" s="25">
+        <f t="shared" si="5"/>
+        <v>0.83428055555555536</v>
+      </c>
+      <c r="Q13" s="25">
         <f t="shared" si="4"/>
-        <v>0.72929999999999995</v>
-      </c>
-      <c r="N13" s="6">
-        <f t="shared" si="5"/>
-        <v>0.95649999999999991</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" si="2"/>
-        <v>0.1147288309414001</v>
-      </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="6">
+        <v>0.1088754402192338</v>
+      </c>
+      <c r="R13" s="26"/>
+      <c r="S13" s="25">
         <f t="shared" si="6"/>
-        <v>8.7880877665890395E-2</v>
-      </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="6">
+        <v>8.6710199521457129E-2</v>
+      </c>
+      <c r="T13" s="26"/>
+      <c r="U13" s="25">
         <f t="shared" si="7"/>
-        <v>0.10801684262252269</v>
-      </c>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.10333413004478964</v>
+      </c>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>1944.2</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>848872</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="20">
         <f t="shared" si="0"/>
         <v>7.5301165809428625E-2</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5">
+      <c r="F14" s="23">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="24">
         <f t="shared" si="1"/>
         <v>0.98299999999999998</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6">
+      <c r="H14" s="25"/>
+      <c r="I14" s="25">
         <v>1.6</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="25">
         <v>0.8</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6">
+      <c r="K14" s="25"/>
+      <c r="L14" s="25">
+        <v>0.84666666666666646</v>
+      </c>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25">
+        <f t="shared" si="2"/>
+        <v>2.3029333333333329E-2</v>
+      </c>
+      <c r="O14" s="25">
         <f t="shared" si="3"/>
-        <v>2.7200000000000002E-2</v>
-      </c>
-      <c r="M14" s="6">
+        <v>0.66581866666666645</v>
+      </c>
+      <c r="P14" s="25">
+        <f t="shared" si="5"/>
+        <v>0.68884799999999979</v>
+      </c>
+      <c r="Q14" s="25">
         <f t="shared" si="4"/>
-        <v>0.78639999999999999</v>
-      </c>
-      <c r="N14" s="6">
-        <f t="shared" si="5"/>
-        <v>0.81359999999999999</v>
-      </c>
-      <c r="O14" s="6">
-        <f t="shared" si="2"/>
-        <v>9.7588475539909181E-2</v>
-      </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="6">
+        <v>8.9896173109532018E-2</v>
+      </c>
+      <c r="R14" s="26"/>
+      <c r="S14" s="25">
         <f t="shared" si="6"/>
-        <v>7.9758627755524739E-2</v>
-      </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="6">
+        <v>7.8220167269449303E-2</v>
+      </c>
+      <c r="T14" s="26"/>
+      <c r="U14" s="25">
         <f t="shared" si="7"/>
-        <v>9.3131013593813067E-2</v>
-      </c>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.6977171649511353E-2</v>
+      </c>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>1945.1</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>800817</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="20">
         <f t="shared" si="0"/>
         <v>7.1038335226051991E-2</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6">
+      <c r="H15" s="25"/>
+      <c r="I15" s="25">
         <v>1.6</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="25">
         <v>0.75</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6">
+      <c r="K15" s="25"/>
+      <c r="L15" s="25">
+        <v>0.82111111111111079</v>
+      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
+        <v>0.61583333333333312</v>
+      </c>
+      <c r="P15" s="25">
+        <f t="shared" si="5"/>
+        <v>0.61583333333333312</v>
+      </c>
+      <c r="Q15" s="25">
         <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-      <c r="N15" s="6">
-        <f t="shared" si="5"/>
-        <v>0.75</v>
-      </c>
-      <c r="O15" s="6">
-        <f t="shared" si="2"/>
-        <v>8.9959877894459056E-2</v>
-      </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="6">
+        <v>8.0367599150978825E-2</v>
+      </c>
+      <c r="R15" s="26"/>
+      <c r="S15" s="25">
         <f t="shared" si="6"/>
-        <v>7.4822643759733409E-2</v>
-      </c>
-      <c r="R15" s="7"/>
-      <c r="S15" s="6">
+        <v>7.290418801103736E-2</v>
+      </c>
+      <c r="T15" s="26"/>
+      <c r="U15" s="25">
         <f t="shared" si="7"/>
-        <v>8.6175569360777651E-2</v>
-      </c>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>7.8501746365993455E-2</v>
+      </c>
+      <c r="V15" s="6"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>1945.2</v>
       </c>
@@ -1123,85 +1249,95 @@
       <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="23">
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6">
+      <c r="H16" s="25"/>
+      <c r="I16" s="25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0</v>
+      </c>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25">
+        <v>0.79555555555555524</v>
+      </c>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M16" s="6">
+      <c r="P16" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N16" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="6">
+      <c r="R16" s="26"/>
+      <c r="S16" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R16" s="7"/>
-      <c r="S16" s="6">
+      <c r="T16" s="26"/>
+      <c r="U16" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="29">
+        <v>1946.1</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="25">
+        <v>0.76999999999999957</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C7:C16)</f>
         <v>11273026</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="22">
         <f>SUM(D7:D16)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -1213,43 +1349,97 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="N18" s="2">
-        <f>SUM(N7:N16)</f>
-        <v>8.3370500000000014</v>
-      </c>
-      <c r="O18" s="2">
-        <f>SUM(O7:O16)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="Q18" s="2">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="P18" s="27">
+        <f>SUM(P7:P16)</f>
+        <v>7.6627066111111102</v>
+      </c>
+      <c r="Q18" s="27">
         <f>SUM(Q7:Q16)</f>
         <v>1</v>
       </c>
-      <c r="S18" s="2">
+      <c r="R18" s="8"/>
+      <c r="S18" s="27">
         <f>SUM(S7:S16)</f>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T18" s="8"/>
+      <c r="U18" s="27">
+        <f>SUM(U7:U16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L5:O5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="N5:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ww2-losses/model-weights.xlsx
+++ b/ww2-losses/model-weights.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\ww2-losses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\ww2-losses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AFF7EB-ACBC-4BFD-BE0B-5FAA9FCF3DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FE35BD-1E61-49C0-B658-9BF67C117AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="81465" yWindow="2370" windowWidth="25845" windowHeight="19695" xr2:uid="{D87ABDF8-9C99-40A4-BC85-F05BC0C9C90B}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{D87ABDF8-9C99-40A4-BC85-F05BC0C9C90B}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение сверхсмертности" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>полугодие</t>
   </si>
@@ -91,46 +87,59 @@
     <t>Удельное распределение сверхсмертности по полугодиям</t>
   </si>
   <si>
+    <t>Распределение потерь РККА = по Кривошееву, тж. Кавалерчику и Лопуховскому</t>
+  </si>
+  <si>
+    <t>Доля населения в оккупации = Госкомстат</t>
+  </si>
+  <si>
+    <t>Интенсивность потерь (в оккупации и в тылу), относительно наличного населения = произвольно назначена</t>
+  </si>
+  <si>
+    <t>удельные веса потерь
+в тылу и в оккупации</t>
+  </si>
+  <si>
+    <t>Удельный вес потерь в оккупации = доля населения в оккупации × интенсивность потерь в оккупации × остаток исходного населения</t>
+  </si>
+  <si>
+    <t>Удельный вес потерь в тылу = доля населения в тылу × интенсивность потерь в тылу × остаток исходного населения</t>
+  </si>
+  <si>
+    <t>Удельный вес потерь всего = удельный вес потерь в оккупации + удельный вес потерь в тылу</t>
+  </si>
+  <si>
+    <t>Потери мужчин призывного возраста = 0.8 × нормализованые боевые потери + 0.2 × нормализованные потери в тылу и оккупации</t>
+  </si>
+  <si>
+    <t>Потери остальных групп = 0.2 × нормализованые боевые потери + 0.8 × нормализованные потери в тылу и оккупации</t>
+  </si>
+  <si>
+    <t>Нормализованные боевые потери = распределение потерь РККА по полугодиям нормализованное на сумму 1.0</t>
+  </si>
+  <si>
+    <t>Удельный вес потерь всего, нормализованный = нормализованные на общую сумму по полугодиям в 1.0</t>
+  </si>
+  <si>
     <t>остаток 
 исходного
+гражданского
 населения, интерп.</t>
   </si>
   <si>
-    <t>Распределение потерь РККА = по Кривошееву, тж. Кавалерчику и Лопуховскому</t>
-  </si>
-  <si>
-    <t>Доля населения в оккупации = Госкомстат</t>
-  </si>
-  <si>
-    <t>Интенсивность потерь (в оккупации и в тылу), относительно наличного населения = произвольно назначена</t>
-  </si>
-  <si>
-    <t>Остаток исходного населения (от имевшегося в начале войны) = линейно инптрполирован</t>
-  </si>
-  <si>
-    <t>удельные веса потерь
-в тылу и в оккупации</t>
-  </si>
-  <si>
-    <t>Удельный вес потерь в оккупации = доля населения в оккупации × интенсивность потерь в оккупации × остаток исходного населения</t>
-  </si>
-  <si>
-    <t>Удельный вес потерь в тылу = доля населения в тылу × интенсивность потерь в тылу × остаток исходного населения</t>
-  </si>
-  <si>
-    <t>Удельный вес потерь всего = удельный вес потерь в оккупации + удельный вес потерь в тылу</t>
-  </si>
-  <si>
-    <t>Потери мужчин призывного возраста = 0.8 × нормализованые боевые потери + 0.2 × нормализованные потери в тылу и оккупации</t>
-  </si>
-  <si>
-    <t>Потери остальных групп = 0.2 × нормализованые боевые потери + 0.8 × нормализованные потери в тылу и оккупации</t>
-  </si>
-  <si>
-    <t>Нормализованные боевые потери = распределение потерь РККА по полугодиям нормализованное на сумму 1.0</t>
-  </si>
-  <si>
-    <t>Удельный вес потерь всего, нормализованный = нормализованные на общую сумму по полугодиям в 1.0</t>
+    <t>Остаток исходного гражданского населения (от имевшегося в начале войны) = линейно интерполирован на середину полугодий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">между гражданским населением в середине 1941 и в начале 1946. </t>
+  </si>
+  <si>
+    <t>Гражданское население: население за вычетом 80% мужского населения призывного возраста.</t>
+  </si>
+  <si>
+    <t>Для 1946 года отсекается население моложе 4.5 лет.</t>
+  </si>
+  <si>
+    <t>Приведённые в примере значения -- для СССР.</t>
   </si>
 </sst>
 </file>
@@ -196,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -225,27 +234,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -272,6 +260,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -291,9 +303,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -331,7 +343,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -437,7 +449,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -579,7 +591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -587,101 +599,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6F7AD4-3EAD-45B6-8C2F-0B488C48472E}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.15625" customWidth="1"/>
-    <col min="2" max="2" width="2.41796875" customWidth="1"/>
-    <col min="3" max="3" width="11.578125" customWidth="1"/>
-    <col min="4" max="4" width="14.83984375" customWidth="1"/>
-    <col min="5" max="5" width="2.578125" customWidth="1"/>
-    <col min="6" max="6" width="12.578125" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="8" width="1.83984375" customWidth="1"/>
-    <col min="10" max="10" width="11.83984375" customWidth="1"/>
-    <col min="11" max="11" width="1.26171875" customWidth="1"/>
-    <col min="12" max="12" width="14.83984375" customWidth="1"/>
-    <col min="13" max="13" width="1.26171875" customWidth="1"/>
-    <col min="17" max="17" width="13.68359375" customWidth="1"/>
-    <col min="18" max="18" width="1.68359375" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="1.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="1.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="1.15625" customWidth="1"/>
-    <col min="21" max="21" width="11.68359375" customWidth="1"/>
+    <col min="20" max="20" width="1.140625" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="14" t="s">
+    <row r="5" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="13" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="18"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="9" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M5" s="10"/>
-      <c r="N5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13" t="s">
+      <c r="N5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="13" t="s">
+      <c r="T5" s="24"/>
+      <c r="U5" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="16"/>
-      <c r="B6" s="12"/>
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="18"/>
+      <c r="K6" s="26"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="11" t="s">
@@ -696,12 +708,12 @@
       <c r="Q6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="13"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="R6" s="24"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="27"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1941.1</v>
       </c>
@@ -709,59 +721,59 @@
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="13">
         <f>C7/C$18</f>
         <v>0</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="23">
-        <v>0</v>
-      </c>
-      <c r="G7" s="24">
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
         <f>1-F7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25">
-        <v>0</v>
-      </c>
-      <c r="J7" s="25">
-        <v>0</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="30">
         <v>1</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25">
+      <c r="M7" s="18"/>
+      <c r="N7" s="18">
         <f>I7*F7*L7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="18">
         <f>G7*J7*L7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="18">
         <f>N7+O7</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="18">
         <f>P7/P$18</f>
         <v>0</v>
       </c>
-      <c r="R7" s="26"/>
-      <c r="S7" s="25">
+      <c r="R7" s="19"/>
+      <c r="S7" s="18">
         <f>0.8 *D7 + 0.2 *Q7</f>
         <v>0</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="25">
+      <c r="T7" s="19"/>
+      <c r="U7" s="18">
         <f>0.2*D7 + 0.8 *Q7</f>
         <v>0</v>
       </c>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1941.2</v>
       </c>
@@ -769,59 +781,59 @@
       <c r="C8" s="7">
         <v>3137673</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="13">
         <f t="shared" ref="D8:D16" si="0">C8/C$18</f>
         <v>0.27833458381094839</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="23">
+      <c r="F8" s="16">
         <v>0.19600000000000001</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="17">
         <f t="shared" ref="G8:G16" si="1">1-F8</f>
         <v>0.80400000000000005</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18">
         <v>1.6</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="18">
         <v>1</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25">
-        <v>1</v>
-      </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25">
+      <c r="K8" s="18"/>
+      <c r="L8" s="30">
+        <v>0.99005779032518504</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18">
         <f t="shared" ref="N8:N16" si="2">I8*F8*L8</f>
-        <v>0.31360000000000005</v>
-      </c>
-      <c r="O8" s="25">
+        <v>0.31048212304597805</v>
+      </c>
+      <c r="O8" s="18">
         <f t="shared" ref="O8:O16" si="3">G8*J8*L8</f>
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="P8" s="25">
+        <v>0.79600646342144887</v>
+      </c>
+      <c r="P8" s="18">
         <f>N8+O8</f>
-        <v>1.1176000000000001</v>
-      </c>
-      <c r="Q8" s="25">
+        <v>1.106488586467427</v>
+      </c>
+      <c r="Q8" s="18">
         <f t="shared" ref="Q8:Q16" si="4">P8/P$18</f>
-        <v>0.14584924840779537</v>
-      </c>
-      <c r="R8" s="26"/>
-      <c r="S8" s="25">
+        <v>0.14315204294003578</v>
+      </c>
+      <c r="R8" s="19"/>
+      <c r="S8" s="18">
         <f>0.8 *D8 + 0.2 *Q8</f>
-        <v>0.25183751673031779</v>
-      </c>
-      <c r="T8" s="26"/>
-      <c r="U8" s="25">
+        <v>0.25129807563676587</v>
+      </c>
+      <c r="T8" s="19"/>
+      <c r="U8" s="18">
         <f>0.2*D8 + 0.8 *Q8</f>
-        <v>0.17234631548842599</v>
+        <v>0.17018855111421832</v>
       </c>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1942.1</v>
       </c>
@@ -829,59 +841,59 @@
       <c r="C9" s="7">
         <v>1518213</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
         <v>0.1346766165535323</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="23">
+      <c r="F9" s="16">
         <v>0.37799999999999995</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="17">
         <f t="shared" si="1"/>
         <v>0.62200000000000011</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18">
         <v>1.6</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="18">
         <v>1</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25">
-        <v>0.97444444444444445</v>
-      </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25">
+      <c r="K9" s="18"/>
+      <c r="L9" s="30">
+        <v>0.970173370975556</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18">
         <f t="shared" si="2"/>
-        <v>0.58934399999999998</v>
-      </c>
-      <c r="O9" s="25">
+        <v>0.58676085476601625</v>
+      </c>
+      <c r="O9" s="18">
         <f t="shared" si="3"/>
-        <v>0.60610444444444456</v>
-      </c>
-      <c r="P9" s="25">
+        <v>0.60344783674679592</v>
+      </c>
+      <c r="P9" s="18">
         <f t="shared" ref="P9:P16" si="5">N9+O9</f>
-        <v>1.1954484444444446</v>
-      </c>
-      <c r="Q9" s="25">
+        <v>1.1902086915128121</v>
+      </c>
+      <c r="Q9" s="18">
         <f t="shared" si="4"/>
-        <v>0.15600864095605793</v>
-      </c>
-      <c r="R9" s="26"/>
-      <c r="S9" s="25">
+        <v>0.15398333773961762</v>
+      </c>
+      <c r="R9" s="19"/>
+      <c r="S9" s="18">
         <f t="shared" ref="S9:S16" si="6">0.8 *D9 + 0.2 *Q9</f>
-        <v>0.13894302143403742</v>
-      </c>
-      <c r="T9" s="26"/>
-      <c r="U9" s="25">
+        <v>0.13853796079074937</v>
+      </c>
+      <c r="T9" s="19"/>
+      <c r="U9" s="18">
         <f t="shared" ref="U9:U16" si="7">0.2*D9 + 0.8 *Q9</f>
-        <v>0.15174223607555282</v>
+        <v>0.15012199350240057</v>
       </c>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1942.2</v>
       </c>
@@ -889,59 +901,59 @@
       <c r="C10" s="7">
         <v>1740003</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="13">
         <f t="shared" si="0"/>
         <v>0.15435101453682445</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="23">
+      <c r="F10" s="16">
         <v>0.40100000000000002</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="17">
         <f t="shared" si="1"/>
         <v>0.59899999999999998</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18">
         <v>1.6</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="18">
         <v>1</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25">
-        <v>0.94888888888888878</v>
-      </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25">
+      <c r="K10" s="18"/>
+      <c r="L10" s="30">
+        <v>0.95028895162592797</v>
+      </c>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18">
         <f t="shared" si="2"/>
-        <v>0.60880711111111108</v>
-      </c>
-      <c r="O10" s="25">
+        <v>0.60970539136319546</v>
+      </c>
+      <c r="O10" s="18">
         <f t="shared" si="3"/>
-        <v>0.56838444444444436</v>
-      </c>
-      <c r="P10" s="25">
+        <v>0.56922308202393079</v>
+      </c>
+      <c r="P10" s="18">
         <f t="shared" si="5"/>
-        <v>1.1771915555555554</v>
-      </c>
-      <c r="Q10" s="25">
+        <v>1.1789284733871264</v>
+      </c>
+      <c r="Q10" s="18">
         <f t="shared" si="4"/>
-        <v>0.15362607695936045</v>
-      </c>
-      <c r="R10" s="26"/>
-      <c r="S10" s="25">
+        <v>0.15252395868297816</v>
+      </c>
+      <c r="R10" s="19"/>
+      <c r="S10" s="18">
         <f t="shared" si="6"/>
-        <v>0.15420602702133165</v>
-      </c>
-      <c r="T10" s="26"/>
-      <c r="U10" s="25">
+        <v>0.15398560336605521</v>
+      </c>
+      <c r="T10" s="19"/>
+      <c r="U10" s="18">
         <f t="shared" si="7"/>
-        <v>0.15377106447485325</v>
+        <v>0.15288936985374743</v>
       </c>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1943.1</v>
       </c>
@@ -949,59 +961,59 @@
       <c r="C11" s="7">
         <v>918618</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="13">
         <f t="shared" si="0"/>
         <v>8.148814701571698E-2</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="23">
+      <c r="F11" s="16">
         <v>0.32700000000000001</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="17">
         <f t="shared" si="1"/>
         <v>0.67300000000000004</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18">
         <v>1.6</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="18">
         <v>0.95</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25">
-        <v>0.92333333333333323</v>
-      </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25">
+      <c r="K11" s="18"/>
+      <c r="L11" s="30">
+        <v>0.93040453227629905</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18">
         <f t="shared" si="2"/>
-        <v>0.48308799999999996</v>
-      </c>
-      <c r="O11" s="25">
+        <v>0.48678765128695967</v>
+      </c>
+      <c r="O11" s="18">
         <f t="shared" si="3"/>
-        <v>0.59033316666666658</v>
-      </c>
-      <c r="P11" s="25">
+        <v>0.59485413771085172</v>
+      </c>
+      <c r="P11" s="18">
         <f t="shared" si="5"/>
-        <v>1.0734211666666664</v>
-      </c>
-      <c r="Q11" s="25">
+        <v>1.0816417889978114</v>
+      </c>
+      <c r="Q11" s="18">
         <f t="shared" si="4"/>
-        <v>0.14008381387200441</v>
-      </c>
-      <c r="R11" s="26"/>
-      <c r="S11" s="25">
+        <v>0.13993748667457223</v>
+      </c>
+      <c r="R11" s="19"/>
+      <c r="S11" s="18">
         <f t="shared" si="6"/>
-        <v>9.3207280386974484E-2</v>
-      </c>
-      <c r="T11" s="26"/>
-      <c r="U11" s="25">
+        <v>9.3178014947488036E-2</v>
+      </c>
+      <c r="T11" s="19"/>
+      <c r="U11" s="18">
         <f t="shared" si="7"/>
-        <v>0.12836468050074692</v>
+        <v>0.12824761874280119</v>
       </c>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1943.2</v>
       </c>
@@ -1009,59 +1021,59 @@
       <c r="C12" s="7">
         <v>1393811</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
         <v>0.12364124770048432</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="23">
+      <c r="F12" s="16">
         <v>0.24199999999999999</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="17">
         <f t="shared" si="1"/>
         <v>0.75800000000000001</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25">
+      <c r="H12" s="18"/>
+      <c r="I12" s="18">
         <v>1.6</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="18">
         <v>0.9</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25">
-        <v>0.89777777777777756</v>
-      </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25">
+      <c r="K12" s="18"/>
+      <c r="L12" s="30">
+        <v>0.91052011292667001</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18">
         <f t="shared" si="2"/>
-        <v>0.34761955555555546</v>
-      </c>
-      <c r="O12" s="25">
+        <v>0.35255338772520661</v>
+      </c>
+      <c r="O12" s="18">
         <f t="shared" si="3"/>
-        <v>0.6124639999999999</v>
-      </c>
-      <c r="P12" s="25">
+        <v>0.62115682103857428</v>
+      </c>
+      <c r="P12" s="18">
         <f t="shared" si="5"/>
-        <v>0.96008355555555536</v>
-      </c>
-      <c r="Q12" s="25">
+        <v>0.97371020876378089</v>
+      </c>
+      <c r="Q12" s="18">
         <f t="shared" si="4"/>
-        <v>0.1252930073250372</v>
-      </c>
-      <c r="R12" s="26"/>
-      <c r="S12" s="25">
+        <v>0.12597383047674782</v>
+      </c>
+      <c r="R12" s="19"/>
+      <c r="S12" s="18">
         <f t="shared" si="6"/>
-        <v>0.12397159962539489</v>
-      </c>
-      <c r="T12" s="26"/>
-      <c r="U12" s="25">
+        <v>0.12410776425573702</v>
+      </c>
+      <c r="T12" s="19"/>
+      <c r="U12" s="18">
         <f t="shared" si="7"/>
-        <v>0.12496265540012663</v>
+        <v>0.12550731392149511</v>
       </c>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1944.1</v>
       </c>
@@ -1069,59 +1081,59 @@
       <c r="C13" s="7">
         <v>915019</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="13">
         <f t="shared" si="0"/>
         <v>8.1168889347012954E-2</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="23">
+      <c r="F13" s="16">
         <v>0.14199999999999999</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="17">
         <f t="shared" si="1"/>
         <v>0.85799999999999998</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18">
         <v>1.6</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="18">
         <v>0.85</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25">
-        <v>0.87222222222222201</v>
-      </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25">
+      <c r="K13" s="18"/>
+      <c r="L13" s="30">
+        <v>0.89063569357704098</v>
+      </c>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18">
         <f t="shared" si="2"/>
-        <v>0.19816888888888884</v>
-      </c>
-      <c r="O13" s="25">
+        <v>0.20235242958070371</v>
+      </c>
+      <c r="O13" s="18">
         <f t="shared" si="3"/>
-        <v>0.63611166666666652</v>
-      </c>
-      <c r="P13" s="25">
+        <v>0.64954061132573593</v>
+      </c>
+      <c r="P13" s="18">
         <f t="shared" si="5"/>
-        <v>0.83428055555555536</v>
-      </c>
-      <c r="Q13" s="25">
+        <v>0.85189304090643958</v>
+      </c>
+      <c r="Q13" s="18">
         <f t="shared" si="4"/>
-        <v>0.1088754402192338</v>
-      </c>
-      <c r="R13" s="26"/>
-      <c r="S13" s="25">
+        <v>0.11021372535029425</v>
+      </c>
+      <c r="R13" s="19"/>
+      <c r="S13" s="18">
         <f t="shared" si="6"/>
-        <v>8.6710199521457129E-2</v>
-      </c>
-      <c r="T13" s="26"/>
-      <c r="U13" s="25">
+        <v>8.6977856547669222E-2</v>
+      </c>
+      <c r="T13" s="19"/>
+      <c r="U13" s="18">
         <f t="shared" si="7"/>
-        <v>0.10333413004478964</v>
+        <v>0.104404758149638</v>
       </c>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1944.2</v>
       </c>
@@ -1129,59 +1141,59 @@
       <c r="C14" s="7">
         <v>848872</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="13">
         <f t="shared" si="0"/>
         <v>7.5301165809428625E-2</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="23">
+      <c r="F14" s="16">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="17">
         <f t="shared" si="1"/>
         <v>0.98299999999999998</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18">
         <v>1.6</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="18">
         <v>0.8</v>
       </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25">
-        <v>0.84666666666666646</v>
-      </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25">
+      <c r="K14" s="18"/>
+      <c r="L14" s="30">
+        <v>0.87075127422741205</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18">
         <f t="shared" si="2"/>
-        <v>2.3029333333333329E-2</v>
-      </c>
-      <c r="O14" s="25">
+        <v>2.368443465898561E-2</v>
+      </c>
+      <c r="O14" s="18">
         <f t="shared" si="3"/>
-        <v>0.66581866666666645</v>
-      </c>
-      <c r="P14" s="25">
+        <v>0.68475880205243678</v>
+      </c>
+      <c r="P14" s="18">
         <f t="shared" si="5"/>
-        <v>0.68884799999999979</v>
-      </c>
-      <c r="Q14" s="25">
+        <v>0.7084432367114224</v>
+      </c>
+      <c r="Q14" s="18">
         <f t="shared" si="4"/>
-        <v>8.9896173109532018E-2</v>
-      </c>
-      <c r="R14" s="26"/>
-      <c r="S14" s="25">
+        <v>9.165489629320904E-2</v>
+      </c>
+      <c r="R14" s="19"/>
+      <c r="S14" s="18">
         <f t="shared" si="6"/>
-        <v>7.8220167269449303E-2</v>
-      </c>
-      <c r="T14" s="26"/>
-      <c r="U14" s="25">
+        <v>7.8571911906184719E-2</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="18">
         <f t="shared" si="7"/>
-        <v>8.6977171649511353E-2</v>
+        <v>8.838415019645296E-2</v>
       </c>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1945.1</v>
       </c>
@@ -1189,59 +1201,59 @@
       <c r="C15" s="7">
         <v>800817</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="13">
         <f t="shared" si="0"/>
         <v>7.1038335226051991E-2</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="23">
-        <v>0</v>
-      </c>
-      <c r="G15" s="24">
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18">
         <v>1.6</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="18">
         <v>0.75</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25">
-        <v>0.82111111111111079</v>
-      </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25">
+      <c r="K15" s="18"/>
+      <c r="L15" s="30">
+        <v>0.85086685487778402</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="18">
         <f t="shared" si="3"/>
-        <v>0.61583333333333312</v>
-      </c>
-      <c r="P15" s="25">
+        <v>0.63815014115833801</v>
+      </c>
+      <c r="P15" s="18">
         <f t="shared" si="5"/>
-        <v>0.61583333333333312</v>
-      </c>
-      <c r="Q15" s="25">
+        <v>0.63815014115833801</v>
+      </c>
+      <c r="Q15" s="18">
         <f t="shared" si="4"/>
-        <v>8.0367599150978825E-2</v>
-      </c>
-      <c r="R15" s="26"/>
-      <c r="S15" s="25">
+        <v>8.2560721842545232E-2</v>
+      </c>
+      <c r="R15" s="19"/>
+      <c r="S15" s="18">
         <f t="shared" si="6"/>
-        <v>7.290418801103736E-2</v>
-      </c>
-      <c r="T15" s="26"/>
-      <c r="U15" s="25">
+        <v>7.3342812549350642E-2</v>
+      </c>
+      <c r="T15" s="19"/>
+      <c r="U15" s="18">
         <f t="shared" si="7"/>
-        <v>7.8501746365993455E-2</v>
+        <v>8.0256244519246581E-2</v>
       </c>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1945.2</v>
       </c>
@@ -1249,65 +1261,65 @@
       <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="23">
-        <v>0</v>
-      </c>
-      <c r="G16" s="24">
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25">
-        <v>0</v>
-      </c>
-      <c r="J16" s="25">
-        <v>0</v>
-      </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25">
-        <v>0.79555555555555524</v>
-      </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25">
+      <c r="H16" s="18"/>
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="30">
+        <v>0.83098243552815498</v>
+      </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P16" s="25">
+      <c r="P16" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="25">
+      <c r="Q16" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R16" s="26"/>
-      <c r="S16" s="25">
+      <c r="R16" s="19"/>
+      <c r="S16" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T16" s="26"/>
-      <c r="U16" s="25">
+      <c r="T16" s="19"/>
+      <c r="U16" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="29">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
         <v>1946.1</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="21"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1315,9 +1327,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="25">
-        <v>0.76999999999999957</v>
-      </c>
+      <c r="L17" s="18"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -1329,20 +1339,20 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C7:C16)</f>
         <v>11273026</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="15">
         <f>SUM(D7:D16)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1351,87 +1361,102 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="P18" s="27">
+      <c r="P18" s="20">
         <f>SUM(P7:P16)</f>
-        <v>7.6627066111111102</v>
-      </c>
-      <c r="Q18" s="27">
+        <v>7.7294641679051566</v>
+      </c>
+      <c r="Q18" s="20">
         <f>SUM(Q7:Q16)</f>
         <v>1</v>
       </c>
       <c r="R18" s="8"/>
-      <c r="S18" s="27">
+      <c r="S18" s="20">
         <f>SUM(S7:S16)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="T18" s="8"/>
-      <c r="U18" s="27">
+      <c r="U18" s="20">
         <f>SUM(U7:U16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K5:K6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="S5:S6"/>
@@ -1440,7 +1465,110 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6BA3DF-B5DD-42C8-B2D4-832141D2BAB3}">
+  <dimension ref="A5:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0.99005779032518504</v>
+      </c>
+      <c r="C5">
+        <v>0.970173370975556</v>
+      </c>
+      <c r="D5">
+        <v>0.95028895162592797</v>
+      </c>
+      <c r="E5">
+        <v>0.93040453227629905</v>
+      </c>
+      <c r="F5">
+        <v>0.91052011292667001</v>
+      </c>
+      <c r="G5">
+        <v>0.89063569357704098</v>
+      </c>
+      <c r="H5">
+        <v>0.87075127422741205</v>
+      </c>
+      <c r="I5">
+        <v>0.85086685487778402</v>
+      </c>
+      <c r="J5">
+        <v>0.83098243552815498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>0.99005779032518504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>0.970173370975556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>0.95028895162592797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>0.93040453227629905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>0.91052011292667001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>0.89063569357704098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>0.87075127422741205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>0.85086685487778402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>0.83098243552815498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ww2-losses/model-weights.xlsx
+++ b/ww2-losses/model-weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\ww2-losses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FE35BD-1E61-49C0-B658-9BF67C117AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DA0504-D9D3-416C-98E2-DE8442440AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{D87ABDF8-9C99-40A4-BC85-F05BC0C9C90B}"/>
   </bookViews>
@@ -261,29 +261,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,7 +602,7 @@
   <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,46 +632,46 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="24"/>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="27" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="26"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="27" t="s">
+      <c r="M5" s="30"/>
+      <c r="N5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
       <c r="R5" s="24"/>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="25" t="s">
         <v>8</v>
       </c>
       <c r="T5" s="24"/>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="24"/>
       <c r="C6" s="11" t="s">
         <v>5</v>
@@ -679,23 +679,23 @@
       <c r="D6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="26"/>
+      <c r="K6" s="30"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="M6" s="30"/>
       <c r="N6" s="11" t="s">
         <v>6</v>
       </c>
@@ -709,9 +709,9 @@
         <v>1</v>
       </c>
       <c r="R6" s="24"/>
-      <c r="S6" s="27"/>
+      <c r="S6" s="25"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="27"/>
+      <c r="U6" s="25"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="18"/>
-      <c r="L7" s="30">
+      <c r="L7" s="23">
         <v>1</v>
       </c>
       <c r="M7" s="18"/>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="18"/>
-      <c r="L8" s="30">
+      <c r="L8" s="23">
         <v>0.99005779032518504</v>
       </c>
       <c r="M8" s="18"/>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="18"/>
-      <c r="L9" s="30">
+      <c r="L9" s="23">
         <v>0.970173370975556</v>
       </c>
       <c r="M9" s="18"/>
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="18"/>
-      <c r="L10" s="30">
+      <c r="L10" s="23">
         <v>0.95028895162592797</v>
       </c>
       <c r="M10" s="18"/>
@@ -981,7 +981,7 @@
         <v>0.95</v>
       </c>
       <c r="K11" s="18"/>
-      <c r="L11" s="30">
+      <c r="L11" s="23">
         <v>0.93040453227629905</v>
       </c>
       <c r="M11" s="18"/>
@@ -1041,7 +1041,7 @@
         <v>0.9</v>
       </c>
       <c r="K12" s="18"/>
-      <c r="L12" s="30">
+      <c r="L12" s="23">
         <v>0.91052011292667001</v>
       </c>
       <c r="M12" s="18"/>
@@ -1101,7 +1101,7 @@
         <v>0.85</v>
       </c>
       <c r="K13" s="18"/>
-      <c r="L13" s="30">
+      <c r="L13" s="23">
         <v>0.89063569357704098</v>
       </c>
       <c r="M13" s="18"/>
@@ -1161,7 +1161,7 @@
         <v>0.8</v>
       </c>
       <c r="K14" s="18"/>
-      <c r="L14" s="30">
+      <c r="L14" s="23">
         <v>0.87075127422741205</v>
       </c>
       <c r="M14" s="18"/>
@@ -1221,7 +1221,7 @@
         <v>0.75</v>
       </c>
       <c r="K15" s="18"/>
-      <c r="L15" s="30">
+      <c r="L15" s="23">
         <v>0.85086685487778402</v>
       </c>
       <c r="M15" s="18"/>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="18"/>
-      <c r="L16" s="30">
+      <c r="L16" s="23">
         <v>0.83098243552815498</v>
       </c>
       <c r="M16" s="18"/>
@@ -1456,7 +1456,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="S5:S6"/>
@@ -1465,11 +1470,7 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ww2-losses/model-weights.xlsx
+++ b/ww2-losses/model-weights.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\ww2-losses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DA0504-D9D3-416C-98E2-DE8442440AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2127C327-96AD-4550-9E64-9A415B8527E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{D87ABDF8-9C99-40A4-BC85-F05BC0C9C90B}"/>
+    <workbookView xWindow="14295" yWindow="2430" windowWidth="21765" windowHeight="19065" xr2:uid="{D87ABDF8-9C99-40A4-BC85-F05BC0C9C90B}"/>
   </bookViews>
   <sheets>
     <sheet name="Распределение сверхсмертности" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="aw_civil_combat">'Распределение сверхсмертности'!$L$4</definedName>
+    <definedName name="aw_conscript_combat">'Распределение сверхсмертности'!$L$3</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>полугодие</t>
   </si>
@@ -140,6 +144,12 @@
   </si>
   <si>
     <t>Приведённые в примере значения -- для СССР.</t>
+  </si>
+  <si>
+    <t>Доля сверхсмертности мужчин призывного возраста связанная с боевыми действиями</t>
+  </si>
+  <si>
+    <t>Доля сверхсмертности остальных групп населения связанная с боевыми действиями</t>
   </si>
 </sst>
 </file>
@@ -264,9 +274,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -274,15 +293,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6F7AD4-3EAD-45B6-8C2F-0B488C48472E}">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,287 +641,183 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="26" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="25" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="25" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="9" t="s">
+      <c r="J7" s="24"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="25" t="s">
+      <c r="M7" s="27"/>
+      <c r="N7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="25" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="25" t="s">
+      <c r="T7" s="25"/>
+      <c r="U7" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="11" t="s">
+    <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="11" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="11" t="s">
+      <c r="H8" s="27"/>
+      <c r="I8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="11" t="s">
+      <c r="K8" s="27"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="24"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="25"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1941.1</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
-        <f>C7/C$18</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17">
-        <f>1-F7</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="23">
-        <v>1</v>
-      </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18">
-        <f>I7*F7*L7</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="18">
-        <f>G7*J7*L7</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="18">
-        <f>N7+O7</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="18">
-        <f>P7/P$18</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="18">
-        <f>0.8 *D7 + 0.2 *Q7</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="19"/>
-      <c r="U7" s="18">
-        <f>0.2*D7 + 0.8 *Q7</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="6"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1941.2</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="7">
-        <v>3137673</v>
-      </c>
-      <c r="D8" s="13">
-        <f t="shared" ref="D8:D16" si="0">C8/C$18</f>
-        <v>0.27833458381094839</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="16">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="G8" s="17">
-        <f t="shared" ref="G8:G16" si="1">1-F8</f>
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18">
-        <v>1.6</v>
-      </c>
-      <c r="J8" s="18">
-        <v>1</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="23">
-        <v>0.99005779032518504</v>
-      </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18">
-        <f t="shared" ref="N8:N16" si="2">I8*F8*L8</f>
-        <v>0.31048212304597805</v>
-      </c>
-      <c r="O8" s="18">
-        <f t="shared" ref="O8:O16" si="3">G8*J8*L8</f>
-        <v>0.79600646342144887</v>
-      </c>
-      <c r="P8" s="18">
-        <f>N8+O8</f>
-        <v>1.106488586467427</v>
-      </c>
-      <c r="Q8" s="18">
-        <f t="shared" ref="Q8:Q16" si="4">P8/P$18</f>
-        <v>0.14315204294003578</v>
-      </c>
-      <c r="R8" s="19"/>
-      <c r="S8" s="18">
-        <f>0.8 *D8 + 0.2 *Q8</f>
-        <v>0.25129807563676587</v>
-      </c>
-      <c r="T8" s="19"/>
-      <c r="U8" s="18">
-        <f>0.2*D8 + 0.8 *Q8</f>
-        <v>0.17018855111421832</v>
-      </c>
-      <c r="V8" s="6"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="28"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1942.1</v>
+        <v>1941.1</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="7">
-        <v>1518213</v>
+      <c r="C9" s="4">
+        <v>0</v>
       </c>
       <c r="D9" s="13">
-        <f t="shared" si="0"/>
-        <v>0.1346766165535323</v>
+        <f>C9/C$20</f>
+        <v>0</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="16">
-        <v>0.37799999999999995</v>
+        <v>0</v>
       </c>
       <c r="G9" s="17">
-        <f t="shared" si="1"/>
-        <v>0.62200000000000011</v>
+        <f>1-F9</f>
+        <v>1</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="J9" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="23">
-        <v>0.970173370975556</v>
+        <v>1</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="18">
-        <f t="shared" si="2"/>
-        <v>0.58676085476601625</v>
+        <f>I9*F9*L9</f>
+        <v>0</v>
       </c>
       <c r="O9" s="18">
-        <f t="shared" si="3"/>
-        <v>0.60344783674679592</v>
+        <f>G9*J9*L9</f>
+        <v>0</v>
       </c>
       <c r="P9" s="18">
-        <f t="shared" ref="P9:P16" si="5">N9+O9</f>
-        <v>1.1902086915128121</v>
+        <f>N9+O9</f>
+        <v>0</v>
       </c>
       <c r="Q9" s="18">
-        <f t="shared" si="4"/>
-        <v>0.15398333773961762</v>
+        <f>P9/P$20</f>
+        <v>0</v>
       </c>
       <c r="R9" s="19"/>
       <c r="S9" s="18">
-        <f t="shared" ref="S9:S16" si="6">0.8 *D9 + 0.2 *Q9</f>
-        <v>0.13853796079074937</v>
+        <f>aw_conscript_combat *D9 + (1 - aw_conscript_combat) *Q9</f>
+        <v>0</v>
       </c>
       <c r="T9" s="19"/>
       <c r="U9" s="18">
-        <f t="shared" ref="U9:U16" si="7">0.2*D9 + 0.8 *Q9</f>
-        <v>0.15012199350240057</v>
+        <f>aw_civil_combat*D9 + (1 - aw_civil_combat) *Q9</f>
+        <v>0</v>
       </c>
       <c r="V9" s="6"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1942.2</v>
+        <v>1941.2</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="7">
-        <v>1740003</v>
+        <v>3137673</v>
       </c>
       <c r="D10" s="13">
-        <f t="shared" si="0"/>
-        <v>0.15435101453682445</v>
+        <f t="shared" ref="D10:D18" si="0">C10/C$20</f>
+        <v>0.27833458381094839</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="16">
-        <v>0.40100000000000002</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="G10" s="17">
-        <f t="shared" si="1"/>
-        <v>0.59899999999999998</v>
+        <f t="shared" ref="G10:G18" si="1">1-F10</f>
+        <v>0.80400000000000005</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18">
@@ -922,555 +828,675 @@
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="23">
-        <v>0.95028895162592797</v>
+        <v>0.99005779032518504</v>
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="18">
-        <f t="shared" si="2"/>
-        <v>0.60970539136319546</v>
+        <f t="shared" ref="N10:N18" si="2">I10*F10*L10</f>
+        <v>0.31048212304597805</v>
       </c>
       <c r="O10" s="18">
-        <f t="shared" si="3"/>
-        <v>0.56922308202393079</v>
+        <f t="shared" ref="O10:O18" si="3">G10*J10*L10</f>
+        <v>0.79600646342144887</v>
       </c>
       <c r="P10" s="18">
-        <f t="shared" si="5"/>
-        <v>1.1789284733871264</v>
+        <f>N10+O10</f>
+        <v>1.106488586467427</v>
       </c>
       <c r="Q10" s="18">
-        <f t="shared" si="4"/>
-        <v>0.15252395868297816</v>
+        <f t="shared" ref="Q10:Q18" si="4">P10/P$20</f>
+        <v>0.14315204294003578</v>
       </c>
       <c r="R10" s="19"/>
       <c r="S10" s="18">
-        <f t="shared" si="6"/>
-        <v>0.15398560336605521</v>
+        <f>aw_conscript_combat *D10 + (1 - aw_conscript_combat) *Q10</f>
+        <v>0.23777982154967459</v>
       </c>
       <c r="T10" s="19"/>
       <c r="U10" s="18">
-        <f t="shared" si="7"/>
-        <v>0.15288936985374743</v>
+        <f>aw_civil_combat*D10 + (1 - aw_civil_combat) *Q10</f>
+        <v>0.17018855111421832</v>
       </c>
       <c r="V10" s="6"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1943.1</v>
+        <v>1942.1</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="7">
-        <v>918618</v>
+        <v>1518213</v>
       </c>
       <c r="D11" s="13">
         <f t="shared" si="0"/>
-        <v>8.148814701571698E-2</v>
+        <v>0.1346766165535323</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="16">
-        <v>0.32700000000000001</v>
+        <v>0.37799999999999995</v>
       </c>
       <c r="G11" s="17">
         <f t="shared" si="1"/>
-        <v>0.67300000000000004</v>
+        <v>0.62200000000000011</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18">
         <v>1.6</v>
       </c>
       <c r="J11" s="18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="23">
-        <v>0.93040453227629905</v>
+        <v>0.970173370975556</v>
       </c>
       <c r="M11" s="18"/>
       <c r="N11" s="18">
         <f t="shared" si="2"/>
-        <v>0.48678765128695967</v>
+        <v>0.58676085476601625</v>
       </c>
       <c r="O11" s="18">
         <f t="shared" si="3"/>
-        <v>0.59485413771085172</v>
+        <v>0.60344783674679592</v>
       </c>
       <c r="P11" s="18">
-        <f t="shared" si="5"/>
-        <v>1.0816417889978114</v>
+        <f t="shared" ref="P11:P18" si="5">N11+O11</f>
+        <v>1.1902086915128121</v>
       </c>
       <c r="Q11" s="18">
         <f t="shared" si="4"/>
-        <v>0.13993748667457223</v>
+        <v>0.15398333773961762</v>
       </c>
       <c r="R11" s="19"/>
       <c r="S11" s="18">
-        <f t="shared" si="6"/>
-        <v>9.3178014947488036E-2</v>
+        <f>aw_conscript_combat *D11 + (1 - aw_conscript_combat) *Q11</f>
+        <v>0.1404686329093579</v>
       </c>
       <c r="T11" s="19"/>
       <c r="U11" s="18">
-        <f t="shared" si="7"/>
-        <v>0.12824761874280119</v>
+        <f>aw_civil_combat*D11 + (1 - aw_civil_combat) *Q11</f>
+        <v>0.15012199350240057</v>
       </c>
       <c r="V11" s="6"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1943.2</v>
+        <v>1942.2</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="7">
-        <v>1393811</v>
+        <v>1740003</v>
       </c>
       <c r="D12" s="13">
         <f t="shared" si="0"/>
-        <v>0.12364124770048432</v>
+        <v>0.15435101453682445</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="16">
-        <v>0.24199999999999999</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="G12" s="17">
         <f t="shared" si="1"/>
-        <v>0.75800000000000001</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18">
         <v>1.6</v>
       </c>
       <c r="J12" s="18">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="23">
-        <v>0.91052011292667001</v>
+        <v>0.95028895162592797</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18">
         <f t="shared" si="2"/>
-        <v>0.35255338772520661</v>
+        <v>0.60970539136319546</v>
       </c>
       <c r="O12" s="18">
         <f t="shared" si="3"/>
-        <v>0.62115682103857428</v>
+        <v>0.56922308202393079</v>
       </c>
       <c r="P12" s="18">
         <f t="shared" si="5"/>
-        <v>0.97371020876378089</v>
+        <v>1.1789284733871264</v>
       </c>
       <c r="Q12" s="18">
         <f t="shared" si="4"/>
-        <v>0.12597383047674782</v>
+        <v>0.15252395868297816</v>
       </c>
       <c r="R12" s="19"/>
       <c r="S12" s="18">
-        <f t="shared" si="6"/>
-        <v>0.12410776425573702</v>
+        <f>aw_conscript_combat *D12 + (1 - aw_conscript_combat) *Q12</f>
+        <v>0.15380289778067058</v>
       </c>
       <c r="T12" s="19"/>
       <c r="U12" s="18">
-        <f t="shared" si="7"/>
-        <v>0.12550731392149511</v>
+        <f>aw_civil_combat*D12 + (1 - aw_civil_combat) *Q12</f>
+        <v>0.15288936985374743</v>
       </c>
       <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1944.1</v>
+        <v>1943.1</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="7">
-        <v>915019</v>
+        <v>918618</v>
       </c>
       <c r="D13" s="13">
         <f t="shared" si="0"/>
-        <v>8.1168889347012954E-2</v>
+        <v>8.148814701571698E-2</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="16">
-        <v>0.14199999999999999</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="G13" s="17">
         <f t="shared" si="1"/>
-        <v>0.85799999999999998</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18">
         <v>1.6</v>
       </c>
       <c r="J13" s="18">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="23">
-        <v>0.89063569357704098</v>
+        <v>0.93040453227629905</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="18">
         <f t="shared" si="2"/>
-        <v>0.20235242958070371</v>
+        <v>0.48678765128695967</v>
       </c>
       <c r="O13" s="18">
         <f t="shared" si="3"/>
-        <v>0.64954061132573593</v>
+        <v>0.59485413771085172</v>
       </c>
       <c r="P13" s="18">
         <f t="shared" si="5"/>
-        <v>0.85189304090643958</v>
+        <v>1.0816417889978114</v>
       </c>
       <c r="Q13" s="18">
         <f t="shared" si="4"/>
-        <v>0.11021372535029425</v>
+        <v>0.13993748667457223</v>
       </c>
       <c r="R13" s="19"/>
       <c r="S13" s="18">
-        <f t="shared" si="6"/>
-        <v>8.6977856547669222E-2</v>
+        <f>aw_conscript_combat *D13 + (1 - aw_conscript_combat) *Q13</f>
+        <v>9.9022948913373557E-2</v>
       </c>
       <c r="T13" s="19"/>
       <c r="U13" s="18">
-        <f t="shared" si="7"/>
-        <v>0.104404758149638</v>
+        <f>aw_civil_combat*D13 + (1 - aw_civil_combat) *Q13</f>
+        <v>0.12824761874280119</v>
       </c>
       <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>1944.2</v>
+        <v>1943.2</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="7">
-        <v>848872</v>
+        <v>1393811</v>
       </c>
       <c r="D14" s="13">
         <f t="shared" si="0"/>
-        <v>7.5301165809428625E-2</v>
+        <v>0.12364124770048432</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="16">
-        <v>1.7000000000000001E-2</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="G14" s="17">
         <f t="shared" si="1"/>
-        <v>0.98299999999999998</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18">
         <v>1.6</v>
       </c>
       <c r="J14" s="18">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="23">
-        <v>0.87075127422741205</v>
+        <v>0.91052011292667001</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18">
         <f t="shared" si="2"/>
-        <v>2.368443465898561E-2</v>
+        <v>0.35255338772520661</v>
       </c>
       <c r="O14" s="18">
         <f t="shared" si="3"/>
-        <v>0.68475880205243678</v>
+        <v>0.62115682103857428</v>
       </c>
       <c r="P14" s="18">
         <f t="shared" si="5"/>
-        <v>0.7084432367114224</v>
+        <v>0.97371020876378089</v>
       </c>
       <c r="Q14" s="18">
         <f t="shared" si="4"/>
-        <v>9.165489629320904E-2</v>
+        <v>0.12597383047674782</v>
       </c>
       <c r="R14" s="19"/>
       <c r="S14" s="18">
-        <f t="shared" si="6"/>
-        <v>7.8571911906184719E-2</v>
+        <f>aw_conscript_combat *D14 + (1 - aw_conscript_combat) *Q14</f>
+        <v>0.12434102253336338</v>
       </c>
       <c r="T14" s="19"/>
       <c r="U14" s="18">
-        <f t="shared" si="7"/>
-        <v>8.838415019645296E-2</v>
+        <f>aw_civil_combat*D14 + (1 - aw_civil_combat) *Q14</f>
+        <v>0.12550731392149511</v>
       </c>
       <c r="V14" s="6"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1945.1</v>
+        <v>1944.1</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="7">
-        <v>800817</v>
+        <v>915019</v>
       </c>
       <c r="D15" s="13">
         <f t="shared" si="0"/>
-        <v>7.1038335226051991E-2</v>
+        <v>8.1168889347012954E-2</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="16">
-        <v>0</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="G15" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18">
         <v>1.6</v>
       </c>
       <c r="J15" s="18">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="23">
-        <v>0.85086685487778402</v>
+        <v>0.89063569357704098</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20235242958070371</v>
       </c>
       <c r="O15" s="18">
         <f t="shared" si="3"/>
-        <v>0.63815014115833801</v>
+        <v>0.64954061132573593</v>
       </c>
       <c r="P15" s="18">
         <f t="shared" si="5"/>
-        <v>0.63815014115833801</v>
+        <v>0.85189304090643958</v>
       </c>
       <c r="Q15" s="18">
         <f t="shared" si="4"/>
-        <v>8.2560721842545232E-2</v>
+        <v>0.11021372535029425</v>
       </c>
       <c r="R15" s="19"/>
       <c r="S15" s="18">
-        <f t="shared" si="6"/>
-        <v>7.3342812549350642E-2</v>
+        <f>aw_conscript_combat *D15 + (1 - aw_conscript_combat) *Q15</f>
+        <v>8.9882340147997342E-2</v>
       </c>
       <c r="T15" s="19"/>
       <c r="U15" s="18">
-        <f t="shared" si="7"/>
-        <v>8.0256244519246581E-2</v>
+        <f>aw_civil_combat*D15 + (1 - aw_civil_combat) *Q15</f>
+        <v>0.104404758149638</v>
       </c>
       <c r="V15" s="6"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>1945.2</v>
+        <v>1944.2</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="4">
-        <v>0</v>
+      <c r="C16" s="7">
+        <v>848872</v>
       </c>
       <c r="D16" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.5301165809428625E-2</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="16">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G16" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J16" s="18">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="23">
-        <v>0.83098243552815498</v>
+        <v>0.87075127422741205</v>
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.368443465898561E-2</v>
       </c>
       <c r="O16" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.68475880205243678</v>
       </c>
       <c r="P16" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.7084432367114224</v>
       </c>
       <c r="Q16" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9.165489629320904E-2</v>
       </c>
       <c r="R16" s="19"/>
       <c r="S16" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>aw_conscript_combat *D16 + (1 - aw_conscript_combat) *Q16</f>
+        <v>8.0207284954562752E-2</v>
       </c>
       <c r="T16" s="19"/>
       <c r="U16" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>aw_civil_combat*D16 + (1 - aw_civil_combat) *Q16</f>
+        <v>8.838415019645296E-2</v>
       </c>
       <c r="V16" s="6"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="3">
+        <v>1945.1</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="7">
+        <v>800817</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="0"/>
+        <v>7.1038335226051991E-2</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="23">
+        <v>0.85086685487778402</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="18">
+        <f t="shared" si="3"/>
+        <v>0.63815014115833801</v>
+      </c>
+      <c r="P17" s="18">
+        <f t="shared" si="5"/>
+        <v>0.63815014115833801</v>
+      </c>
+      <c r="Q17" s="18">
+        <f t="shared" si="4"/>
+        <v>8.2560721842545232E-2</v>
+      </c>
+      <c r="R17" s="19"/>
+      <c r="S17" s="18">
+        <f>aw_conscript_combat *D17 + (1 - aw_conscript_combat) *Q17</f>
+        <v>7.4495051210999974E-2</v>
+      </c>
+      <c r="T17" s="19"/>
+      <c r="U17" s="18">
+        <f>aw_civil_combat*D17 + (1 - aw_civil_combat) *Q17</f>
+        <v>8.0256244519246581E-2</v>
+      </c>
+      <c r="V17" s="6"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1945.2</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="23">
+        <v>0.83098243552815498</v>
+      </c>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="19"/>
+      <c r="S18" s="18">
+        <f>aw_conscript_combat *D18 + (1 - aw_conscript_combat) *Q18</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="19"/>
+      <c r="U18" s="18">
+        <f>aw_civil_combat*D18 + (1 - aw_civil_combat) *Q18</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="6"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
         <v>1946.1</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="1">
-        <f>SUM(C7:C16)</f>
+      <c r="C20" s="1">
+        <f>SUM(C9:C18)</f>
         <v>11273026</v>
       </c>
-      <c r="D18" s="15">
-        <f>SUM(D7:D16)</f>
+      <c r="D20" s="15">
+        <f>SUM(D9:D18)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="P18" s="20">
-        <f>SUM(P7:P16)</f>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="P20" s="20">
+        <f>SUM(P9:P18)</f>
         <v>7.7294641679051566</v>
       </c>
-      <c r="Q18" s="20">
-        <f>SUM(Q7:Q16)</f>
+      <c r="Q20" s="20">
+        <f>SUM(Q9:Q18)</f>
         <v>1</v>
       </c>
-      <c r="R18" s="8"/>
-      <c r="S18" s="20">
-        <f>SUM(S7:S16)</f>
+      <c r="R20" s="8"/>
+      <c r="S20" s="20">
+        <f>SUM(S9:S18)</f>
         <v>1</v>
       </c>
-      <c r="T18" s="8"/>
-      <c r="U18" s="20">
-        <f>SUM(U7:U16)</f>
+      <c r="T20" s="8"/>
+      <c r="U20" s="20">
+        <f>SUM(U9:U18)</f>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
